--- a/8. 资源组长工作框架/6. 其它/述职/人员分析.xlsx
+++ b/8. 资源组长工作框架/6. 其它/述职/人员分析.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangbin184035.HOLLYSYS\Desktop\述职\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Code\99se\Hollysys\8. 资源组长工作框架\6. 其它\述职\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -616,74 +616,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -703,7 +635,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1267,16 +1199,17 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
